--- a/Figures/pairwise_adonis_23_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_23_same_sheet.xlsx
@@ -455,7 +455,7 @@
         <v>4.92784095622156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>0.388133255421042</v>
       </c>
       <c r="E12" t="n">
-        <v>0.746</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13">
@@ -650,7 +650,7 @@
         <v>6.26965126929863</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>0.450582998768053</v>
       </c>
       <c r="E30" t="n">
-        <v>0.697</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="31">
@@ -910,7 +910,7 @@
         <v>2.33382210599512</v>
       </c>
       <c r="E48" t="n">
-        <v>0.068</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>5.05571631962443</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="55">
@@ -1170,7 +1170,7 @@
         <v>0.226215824760636</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="73">
@@ -1300,7 +1300,7 @@
         <v>8.97412472614793</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="85">
@@ -1365,7 +1365,7 @@
         <v>7.4284805992186</v>
       </c>
       <c r="E90" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="91">

--- a/Figures/pairwise_adonis_23_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_23_same_sheet.xlsx
@@ -455,7 +455,7 @@
         <v>4.92784095622156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>0.388133255421042</v>
       </c>
       <c r="E12" t="n">
-        <v>0.76</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="13">
@@ -585,7 +585,7 @@
         <v>5.95534481037748</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="19">
@@ -650,7 +650,7 @@
         <v>6.26965126929863</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>0.450582998768053</v>
       </c>
       <c r="E30" t="n">
-        <v>0.719</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="31">
@@ -910,7 +910,7 @@
         <v>2.33382210599512</v>
       </c>
       <c r="E48" t="n">
-        <v>0.069</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>5.05571631962443</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="55">
@@ -1040,7 +1040,7 @@
         <v>7.27070144169435</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="61">
@@ -1105,7 +1105,7 @@
         <v>8.67371315115957</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="67">
@@ -1170,7 +1170,7 @@
         <v>0.226215824760636</v>
       </c>
       <c r="E72" t="n">
-        <v>0.886</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="73">
@@ -1365,7 +1365,7 @@
         <v>7.4284805992186</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="91">

--- a/Figures/pairwise_adonis_23_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_23_same_sheet.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">parent_call</t>
   </si>
   <si>
-    <t xml:space="preserve">Spp_23 ~ Treatment , strata = Null , permutations 999</t>
+    <t xml:space="preserve">Veg_Spp ~ Treatment , strata = Null , permutations 999</t>
   </si>
   <si>
     <t xml:space="preserve">W_vs_LM</t>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0.599867316517921</v>
+        <v>0.17581552087996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.260348814617538</v>
+        <v>0.105154495254921</v>
       </c>
       <c r="D6" t="n">
-        <v>4.92784095622156</v>
+        <v>1.64515877407047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="7">
@@ -463,10 +463,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>1.70422351408236</v>
+        <v>1.49615789741033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.739651185382462</v>
+        <v>0.894845504745079</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>2.30409083060028</v>
+        <v>1.67197341829029</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -511,16 +511,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0588889934336698</v>
+        <v>0.071010640456623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0269759286024686</v>
+        <v>0.0435203253472213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.388133255421042</v>
+        <v>0.637007320706821</v>
       </c>
       <c r="E12" t="n">
-        <v>0.757</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="13">
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>2.12413107239942</v>
+        <v>1.56065548083438</v>
       </c>
       <c r="C13" t="n">
-        <v>0.973024071397531</v>
+        <v>0.956479674652779</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>2.18302006583309</v>
+        <v>1.631666121291</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.737596786370114</v>
+        <v>0.149657837749831</v>
       </c>
       <c r="C18" t="n">
-        <v>0.298433570903796</v>
+        <v>0.132365505392103</v>
       </c>
       <c r="D18" t="n">
-        <v>5.95534481037748</v>
+        <v>2.135826879874</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="19">
@@ -593,10 +593,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>1.73396425194179</v>
+        <v>0.980982938383677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.701566429096204</v>
+        <v>0.867634494607897</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="n">
-        <v>2.4715610383119</v>
+        <v>1.13064077613351</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.916138419576462</v>
+        <v>0.912406079916105</v>
       </c>
       <c r="C24" t="n">
-        <v>0.309312241537916</v>
+        <v>0.368784207358925</v>
       </c>
       <c r="D24" t="n">
-        <v>6.26965126929863</v>
+        <v>8.17941972177611</v>
       </c>
       <c r="E24" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="25">
@@ -658,10 +658,10 @@
         <v>14</v>
       </c>
       <c r="B25" t="n">
-        <v>2.04571790729044</v>
+        <v>1.56168598180847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.690687758462084</v>
+        <v>0.631215792641075</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="n">
-        <v>2.96185632686691</v>
+        <v>2.47409206172457</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -706,16 +706,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>0.069837381804438</v>
+        <v>0.118870329805476</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0311809564227593</v>
+        <v>0.0729363976671097</v>
       </c>
       <c r="D30" t="n">
-        <v>0.450582998768053</v>
+        <v>1.10144499770025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.729</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="31">
@@ -723,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>2.1699073154898</v>
+        <v>1.51091032303145</v>
       </c>
       <c r="C31" t="n">
-        <v>0.968819043577241</v>
+        <v>0.92706360233289</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>2.23974469729424</v>
+        <v>1.62978065283693</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0.620516412343041</v>
+        <v>0.136066483638459</v>
       </c>
       <c r="C36" t="n">
-        <v>0.304267012367474</v>
+        <v>0.0816021454237045</v>
       </c>
       <c r="D36" t="n">
-        <v>6.12266235591311</v>
+        <v>1.24393804954926</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="37">
@@ -788,10 +788,10 @@
         <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>1.41886474670822</v>
+        <v>1.53137109330218</v>
       </c>
       <c r="C37" t="n">
-        <v>0.695732987632526</v>
+        <v>0.918397854576296</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="n">
-        <v>2.03938115905126</v>
+        <v>1.66743757694064</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>2.27410806300178</v>
+        <v>0.471217679397742</v>
       </c>
       <c r="C42" t="n">
-        <v>0.688538191586771</v>
+        <v>0.33116333160049</v>
       </c>
       <c r="D42" t="n">
-        <v>30.9493312561316</v>
+        <v>6.93186671942082</v>
       </c>
       <c r="E42" t="n">
         <v>0.001</v>
@@ -853,10 +853,10 @@
         <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>1.02869792625058</v>
+        <v>0.951698550851479</v>
       </c>
       <c r="C43" t="n">
-        <v>0.311461808413229</v>
+        <v>0.66883666839951</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -866,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>3.30280598925236</v>
+        <v>1.42291623024922</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -901,16 +901,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0.223455395225173</v>
+        <v>0.399908279914891</v>
       </c>
       <c r="C48" t="n">
-        <v>0.142882791966892</v>
+        <v>0.206958669132862</v>
       </c>
       <c r="D48" t="n">
-        <v>2.33382210599512</v>
+        <v>3.6535565740211</v>
       </c>
       <c r="E48" t="n">
-        <v>0.082</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="49">
@@ -918,10 +918,10 @@
         <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>1.34045158159924</v>
+        <v>1.53240159427627</v>
       </c>
       <c r="C49" t="n">
-        <v>0.857117208033108</v>
+        <v>0.793041330867138</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -931,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>1.56390697682441</v>
+        <v>1.93230987419116</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -966,16 +966,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0.528914953893974</v>
+        <v>0.15346587667546</v>
       </c>
       <c r="C54" t="n">
-        <v>0.265312320713855</v>
+        <v>0.0938576510094234</v>
       </c>
       <c r="D54" t="n">
-        <v>5.05571631962443</v>
+        <v>1.45011113937639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="55">
@@ -983,10 +983,10 @@
         <v>14</v>
       </c>
       <c r="B55" t="n">
-        <v>1.4646409897986</v>
+        <v>1.48162593549926</v>
       </c>
       <c r="C55" t="n">
-        <v>0.734687679286145</v>
+        <v>0.906142348990577</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="n">
-        <v>1.99355594369257</v>
+        <v>1.63509181217472</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>0.752312713220879</v>
+        <v>0.415666024957391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.34181766227241</v>
+        <v>0.290297513819399</v>
       </c>
       <c r="D60" t="n">
-        <v>7.27070144169435</v>
+        <v>5.72657595627664</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="61">
@@ -1048,10 +1048,10 @@
         <v>14</v>
       </c>
       <c r="B61" t="n">
-        <v>1.44860548456764</v>
+        <v>1.01619613427552</v>
       </c>
       <c r="C61" t="n">
-        <v>0.65818233772759</v>
+        <v>0.709702486180601</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -1061,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>2.20091819778852</v>
+        <v>1.43186215923291</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1096,16 +1096,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1.09063215876114</v>
+        <v>0.847389674089876</v>
       </c>
       <c r="C66" t="n">
-        <v>0.382544892110712</v>
+        <v>0.346681478937831</v>
       </c>
       <c r="D66" t="n">
-        <v>8.67371315115957</v>
+        <v>7.42905726480664</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="67">
@@ -1113,10 +1113,10 @@
         <v>14</v>
       </c>
       <c r="B67" t="n">
-        <v>1.7603591399163</v>
+        <v>1.59689917770031</v>
       </c>
       <c r="C67" t="n">
-        <v>0.617455107889288</v>
+        <v>0.653318521062169</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="n">
-        <v>2.85099129867744</v>
+        <v>2.44428885179019</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304510502938173</v>
+        <v>0.0372894003685953</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0159013350807535</v>
+        <v>0.0235500164955526</v>
       </c>
       <c r="D72" t="n">
-        <v>0.226215824760636</v>
+        <v>0.337651939687124</v>
       </c>
       <c r="E72" t="n">
-        <v>0.889</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="73">
@@ -1178,10 +1178,10 @@
         <v>14</v>
       </c>
       <c r="B73" t="n">
-        <v>1.88454854811566</v>
+        <v>1.5461235189233</v>
       </c>
       <c r="C73" t="n">
-        <v>0.984098664919247</v>
+        <v>0.976449983504447</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B74" t="n">
-        <v>1.91499959840947</v>
+        <v>1.5834129192919</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1226,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>2.48650161971466</v>
+        <v>1.4743294822424</v>
       </c>
       <c r="C78" t="n">
-        <v>0.644723604966081</v>
+        <v>0.591730393665165</v>
       </c>
       <c r="D78" t="n">
-        <v>25.4059391383528</v>
+        <v>20.2910659592871</v>
       </c>
       <c r="E78" t="n">
         <v>0.001</v>
@@ -1243,10 +1243,10 @@
         <v>14</v>
       </c>
       <c r="B79" t="n">
-        <v>1.37019231945866</v>
+        <v>1.01722663524961</v>
       </c>
       <c r="C79" t="n">
-        <v>0.355276395033919</v>
+        <v>0.408269606334835</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -1256,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="n">
-        <v>3.85669393917333</v>
+        <v>2.49155611749201</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1291,16 +1291,16 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0.957912000891395</v>
+        <v>0.585873186031093</v>
       </c>
       <c r="C84" t="n">
-        <v>0.390618786705465</v>
+        <v>0.377416779421997</v>
       </c>
       <c r="D84" t="n">
-        <v>8.97412472614793</v>
+        <v>8.48695361079997</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="85">
@@ -1308,10 +1308,10 @@
         <v>14</v>
       </c>
       <c r="B85" t="n">
-        <v>1.49438172765802</v>
+        <v>0.966450976472601</v>
       </c>
       <c r="C85" t="n">
-        <v>0.609381213294535</v>
+        <v>0.622583220578003</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -1321,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="n">
-        <v>2.45229372854942</v>
+        <v>1.55232416250369</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1356,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>0.958345832301955</v>
+        <v>0.845934816401615</v>
       </c>
       <c r="C90" t="n">
-        <v>0.346663897368882</v>
+        <v>0.353490770409461</v>
       </c>
       <c r="D90" t="n">
-        <v>7.4284805992186</v>
+        <v>7.654756590044</v>
       </c>
       <c r="E90" t="n">
         <v>0.002</v>
@@ -1373,10 +1373,10 @@
         <v>14</v>
       </c>
       <c r="B91" t="n">
-        <v>1.80613538300668</v>
+        <v>1.54715401989739</v>
       </c>
       <c r="C91" t="n">
-        <v>0.653336102631118</v>
+        <v>0.646509229590539</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -1386,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="n">
-        <v>2.76448121530863</v>
+        <v>2.39308883629901</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>

--- a/Figures/pairwise_adonis_23_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_23_same_sheet.xlsx
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17581552087996</v>
+        <v>0.599867316517921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105154495254921</v>
+        <v>0.260348814617538</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64515877407047</v>
+        <v>4.92784095622156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.202</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7">
@@ -463,10 +463,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>1.49615789741033</v>
+        <v>1.70422351408236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.894845504745079</v>
+        <v>0.739651185382462</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>1.67197341829029</v>
+        <v>2.30409083060028</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -511,16 +511,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.071010640456623</v>
+        <v>0.0588889934336698</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0435203253472213</v>
+        <v>0.0269759286024686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.637007320706821</v>
+        <v>0.388133255421042</v>
       </c>
       <c r="E12" t="n">
-        <v>0.651</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="13">
@@ -528,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1.56065548083438</v>
+        <v>2.12413107239942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.956479674652779</v>
+        <v>0.973024071397531</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1.631666121291</v>
+        <v>2.18302006583309</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>0.149657837749831</v>
+        <v>0.737596786370114</v>
       </c>
       <c r="C18" t="n">
-        <v>0.132365505392103</v>
+        <v>0.298433570903796</v>
       </c>
       <c r="D18" t="n">
-        <v>2.135826879874</v>
+        <v>5.95534481037748</v>
       </c>
       <c r="E18" t="n">
-        <v>0.116</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="19">
@@ -593,10 +593,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>0.980982938383677</v>
+        <v>1.73396425194179</v>
       </c>
       <c r="C19" t="n">
-        <v>0.867634494607897</v>
+        <v>0.701566429096204</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="n">
-        <v>1.13064077613351</v>
+        <v>2.4715610383119</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.912406079916105</v>
+        <v>0.916138419576462</v>
       </c>
       <c r="C24" t="n">
-        <v>0.368784207358925</v>
+        <v>0.309312241537916</v>
       </c>
       <c r="D24" t="n">
-        <v>8.17941972177611</v>
+        <v>6.26965126929863</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="25">
@@ -658,10 +658,10 @@
         <v>14</v>
       </c>
       <c r="B25" t="n">
-        <v>1.56168598180847</v>
+        <v>2.04571790729044</v>
       </c>
       <c r="C25" t="n">
-        <v>0.631215792641075</v>
+        <v>0.690687758462084</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="n">
-        <v>2.47409206172457</v>
+        <v>2.96185632686691</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -706,16 +706,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118870329805476</v>
+        <v>0.069837381804438</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0729363976671097</v>
+        <v>0.0311809564227593</v>
       </c>
       <c r="D30" t="n">
-        <v>1.10144499770025</v>
+        <v>0.450582998768053</v>
       </c>
       <c r="E30" t="n">
-        <v>0.327</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="31">
@@ -723,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>1.51091032303145</v>
+        <v>2.1699073154898</v>
       </c>
       <c r="C31" t="n">
-        <v>0.92706360233289</v>
+        <v>0.968819043577241</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>1.62978065283693</v>
+        <v>2.23974469729424</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0.136066483638459</v>
+        <v>0.620516412343041</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0816021454237045</v>
+        <v>0.304267012367474</v>
       </c>
       <c r="D36" t="n">
-        <v>1.24393804954926</v>
+        <v>6.12266235591311</v>
       </c>
       <c r="E36" t="n">
-        <v>0.318</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="37">
@@ -788,10 +788,10 @@
         <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>1.53137109330218</v>
+        <v>1.41886474670822</v>
       </c>
       <c r="C37" t="n">
-        <v>0.918397854576296</v>
+        <v>0.695732987632526</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="n">
-        <v>1.66743757694064</v>
+        <v>2.03938115905126</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0.471217679397742</v>
+        <v>2.27410806300178</v>
       </c>
       <c r="C42" t="n">
-        <v>0.33116333160049</v>
+        <v>0.688538191586771</v>
       </c>
       <c r="D42" t="n">
-        <v>6.93186671942082</v>
+        <v>30.9493312561316</v>
       </c>
       <c r="E42" t="n">
         <v>0.001</v>
@@ -853,10 +853,10 @@
         <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>0.951698550851479</v>
+        <v>1.02869792625058</v>
       </c>
       <c r="C43" t="n">
-        <v>0.66883666839951</v>
+        <v>0.311461808413229</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -866,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>1.42291623024922</v>
+        <v>3.30280598925236</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -901,16 +901,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0.399908279914891</v>
+        <v>0.223455395225173</v>
       </c>
       <c r="C48" t="n">
-        <v>0.206958669132862</v>
+        <v>0.142882791966892</v>
       </c>
       <c r="D48" t="n">
-        <v>3.6535565740211</v>
+        <v>2.33382210599512</v>
       </c>
       <c r="E48" t="n">
-        <v>0.027</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="49">
@@ -918,10 +918,10 @@
         <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>1.53240159427627</v>
+        <v>1.34045158159924</v>
       </c>
       <c r="C49" t="n">
-        <v>0.793041330867138</v>
+        <v>0.857117208033108</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -931,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>1.93230987419116</v>
+        <v>1.56390697682441</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -966,16 +966,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0.15346587667546</v>
+        <v>0.528914953893974</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0938576510094234</v>
+        <v>0.265312320713855</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45011113937639</v>
+        <v>5.05571631962443</v>
       </c>
       <c r="E54" t="n">
-        <v>0.233</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="55">
@@ -983,10 +983,10 @@
         <v>14</v>
       </c>
       <c r="B55" t="n">
-        <v>1.48162593549926</v>
+        <v>1.4646409897986</v>
       </c>
       <c r="C55" t="n">
-        <v>0.906142348990577</v>
+        <v>0.734687679286145</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="n">
-        <v>1.63509181217472</v>
+        <v>1.99355594369257</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>0.415666024957391</v>
+        <v>0.752312713220879</v>
       </c>
       <c r="C60" t="n">
-        <v>0.290297513819399</v>
+        <v>0.34181766227241</v>
       </c>
       <c r="D60" t="n">
-        <v>5.72657595627664</v>
+        <v>7.27070144169435</v>
       </c>
       <c r="E60" t="n">
-        <v>0.001</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="61">
@@ -1048,10 +1048,10 @@
         <v>14</v>
       </c>
       <c r="B61" t="n">
-        <v>1.01619613427552</v>
+        <v>1.44860548456764</v>
       </c>
       <c r="C61" t="n">
-        <v>0.709702486180601</v>
+        <v>0.65818233772759</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -1061,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>1.43186215923291</v>
+        <v>2.20091819778852</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1096,16 +1096,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>0.847389674089876</v>
+        <v>1.09063215876114</v>
       </c>
       <c r="C66" t="n">
-        <v>0.346681478937831</v>
+        <v>0.382544892110712</v>
       </c>
       <c r="D66" t="n">
-        <v>7.42905726480664</v>
+        <v>8.67371315115957</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="67">
@@ -1113,10 +1113,10 @@
         <v>14</v>
       </c>
       <c r="B67" t="n">
-        <v>1.59689917770031</v>
+        <v>1.7603591399163</v>
       </c>
       <c r="C67" t="n">
-        <v>0.653318521062169</v>
+        <v>0.617455107889288</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="n">
-        <v>2.44428885179019</v>
+        <v>2.85099129867744</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0372894003685953</v>
+        <v>0.0304510502938173</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0235500164955526</v>
+        <v>0.0159013350807535</v>
       </c>
       <c r="D72" t="n">
-        <v>0.337651939687124</v>
+        <v>0.226215824760636</v>
       </c>
       <c r="E72" t="n">
-        <v>0.826</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="73">
@@ -1178,10 +1178,10 @@
         <v>14</v>
       </c>
       <c r="B73" t="n">
-        <v>1.5461235189233</v>
+        <v>1.88454854811566</v>
       </c>
       <c r="C73" t="n">
-        <v>0.976449983504447</v>
+        <v>0.984098664919247</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B74" t="n">
-        <v>1.5834129192919</v>
+        <v>1.91499959840947</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1226,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>1.4743294822424</v>
+        <v>2.48650161971466</v>
       </c>
       <c r="C78" t="n">
-        <v>0.591730393665165</v>
+        <v>0.644723604966081</v>
       </c>
       <c r="D78" t="n">
-        <v>20.2910659592871</v>
+        <v>25.4059391383528</v>
       </c>
       <c r="E78" t="n">
         <v>0.001</v>
@@ -1243,10 +1243,10 @@
         <v>14</v>
       </c>
       <c r="B79" t="n">
-        <v>1.01722663524961</v>
+        <v>1.37019231945866</v>
       </c>
       <c r="C79" t="n">
-        <v>0.408269606334835</v>
+        <v>0.355276395033919</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -1256,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="n">
-        <v>2.49155611749201</v>
+        <v>3.85669393917333</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1291,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0.585873186031093</v>
+        <v>0.957912000891395</v>
       </c>
       <c r="C84" t="n">
-        <v>0.377416779421997</v>
+        <v>0.390618786705465</v>
       </c>
       <c r="D84" t="n">
-        <v>8.48695361079997</v>
+        <v>8.97412472614793</v>
       </c>
       <c r="E84" t="n">
         <v>0.001</v>
@@ -1308,10 +1308,10 @@
         <v>14</v>
       </c>
       <c r="B85" t="n">
-        <v>0.966450976472601</v>
+        <v>1.49438172765802</v>
       </c>
       <c r="C85" t="n">
-        <v>0.622583220578003</v>
+        <v>0.609381213294535</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -1321,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="n">
-        <v>1.55232416250369</v>
+        <v>2.45229372854942</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1356,16 +1356,16 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>0.845934816401615</v>
+        <v>0.958345832301955</v>
       </c>
       <c r="C90" t="n">
-        <v>0.353490770409461</v>
+        <v>0.346663897368882</v>
       </c>
       <c r="D90" t="n">
-        <v>7.654756590044</v>
+        <v>7.4284805992186</v>
       </c>
       <c r="E90" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="91">
@@ -1373,10 +1373,10 @@
         <v>14</v>
       </c>
       <c r="B91" t="n">
-        <v>1.54715401989739</v>
+        <v>1.80613538300668</v>
       </c>
       <c r="C91" t="n">
-        <v>0.646509229590539</v>
+        <v>0.653336102631118</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -1386,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="n">
-        <v>2.39308883629901</v>
+        <v>2.76448121530863</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>

--- a/Figures/pairwise_adonis_23_same_sheet.xlsx
+++ b/Figures/pairwise_adonis_23_same_sheet.xlsx
@@ -455,7 +455,7 @@
         <v>4.92784095622156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>0.388133255421042</v>
       </c>
       <c r="E12" t="n">
-        <v>0.728</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="13">
@@ -585,7 +585,7 @@
         <v>5.95534481037748</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="19">
@@ -650,7 +650,7 @@
         <v>6.26965126929863</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>0.450582998768053</v>
       </c>
       <c r="E30" t="n">
-        <v>0.725</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="31">
@@ -845,7 +845,7 @@
         <v>30.9493312561316</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="43">
@@ -910,7 +910,7 @@
         <v>2.33382210599512</v>
       </c>
       <c r="E48" t="n">
-        <v>0.067</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>5.05571631962443</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="55">
@@ -1040,7 +1040,7 @@
         <v>7.27070144169435</v>
       </c>
       <c r="E60" t="n">
-        <v>0.009</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="61">
@@ -1105,7 +1105,7 @@
         <v>8.67371315115957</v>
       </c>
       <c r="E66" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="67">
@@ -1170,7 +1170,7 @@
         <v>0.226215824760636</v>
       </c>
       <c r="E72" t="n">
-        <v>0.886</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="73">
@@ -1235,7 +1235,7 @@
         <v>25.4059391383528</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="79">
@@ -1362,7 +1362,7 @@
         <v>0.346663897368882</v>
       </c>
       <c r="D90" t="n">
-        <v>7.4284805992186</v>
+        <v>7.42848059921861</v>
       </c>
       <c r="E90" t="n">
         <v>0.006</v>
